--- a/atividadeform/planilha_preços.xlsx
+++ b/atividadeform/planilha_preços.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="PREÇOS" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PREÇOS" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -28,6 +28,7 @@
     <font>
       <name val="Arial"/>
       <b val="1"/>
+      <color rgb="00FFFFFF"/>
       <sz val="12"/>
     </font>
     <font>
@@ -102,44 +103,44 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="12">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="3" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="3" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="3" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="2" fillId="5" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -432,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,14 +441,14 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="20"/>
-    <col customWidth="1" max="2" min="2" width="20"/>
-    <col customWidth="1" max="3" min="3" width="20"/>
-    <col customWidth="1" max="4" min="4" width="20"/>
-    <col customWidth="1" max="5" min="5" width="16"/>
-    <col customWidth="1" max="6" min="6" width="20"/>
-    <col customWidth="1" max="7" min="7" width="20"/>
-    <col customWidth="1" max="8" min="8" width="8"/>
+    <col width="20" customWidth="1" min="1" max="1"/>
+    <col width="20" customWidth="1" min="2" max="2"/>
+    <col width="20" customWidth="1" min="3" max="3"/>
+    <col width="20" customWidth="1" min="4" max="4"/>
+    <col width="16" customWidth="1" min="5" max="5"/>
+    <col width="20" customWidth="1" min="6" max="6"/>
+    <col width="20" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -495,33 +496,29 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>Câmera PTZ Speed Dome</t>
-        </is>
-      </c>
-      <c r="B2" s="2" t="inlineStr">
-        <is>
-          <t>DS-2DE7186 series</t>
-        </is>
-      </c>
+          <t>ABERTURA E RECOMPOSIÇÃO RASGO PARA INSTALAÇÃO DE TUBULAÇÃO EM PAVIMENTAÇÃO DE CONCRETO</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="n"/>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>Hikvision</t>
+          <t>Nucleo</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>Hikvision</t>
+          <t>Nucleo</t>
         </is>
       </c>
       <c r="E2" s="3" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>2899</v>
+        <v>200</v>
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>05/05/2020</t>
+          <t>04/08/2020</t>
         </is>
       </c>
       <c r="H2" s="5">
@@ -532,33 +529,29 @@
     <row r="3">
       <c r="A3" s="6" t="inlineStr">
         <is>
-          <t>Câmera mini Bullet</t>
-        </is>
-      </c>
-      <c r="B3" s="6" t="inlineStr">
-        <is>
-          <t>DS-2CD2012-I</t>
-        </is>
-      </c>
+          <t>CABO DE FIBRA ÓPTICA AUTOSUSTENTADA DE 12F (CFOA-SM-AS80-12FO)</t>
+        </is>
+      </c>
+      <c r="B3" s="6" t="n"/>
       <c r="C3" s="6" t="inlineStr">
         <is>
-          <t>Hikvision</t>
+          <t>Furukawa</t>
         </is>
       </c>
       <c r="D3" s="6" t="inlineStr">
         <is>
-          <t>Hikvision</t>
+          <t>Nucleo</t>
         </is>
       </c>
       <c r="E3" s="7" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F3" s="8" t="n">
-        <v>329.9</v>
+        <v>10</v>
       </c>
       <c r="G3" s="7" t="inlineStr">
         <is>
-          <t>07/05/2020</t>
+          <t>31/07/2020</t>
         </is>
       </c>
       <c r="H3" s="9">
@@ -569,29 +562,29 @@
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>Parafuso 8"</t>
+          <t>CAIXA DE PASSAGEM DE SOBREPOR 120x120x7,5CM</t>
         </is>
       </c>
       <c r="B4" s="2" t="n"/>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>pado</t>
+          <t>Furukawa</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>Matec</t>
+          <t>Nucleo</t>
         </is>
       </c>
       <c r="E4" s="3" t="n">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>0.1</v>
+        <v>10</v>
       </c>
       <c r="G4" s="3" t="inlineStr">
         <is>
-          <t>07/05/2020</t>
+          <t>13/05/2020</t>
         </is>
       </c>
       <c r="H4" s="5">
@@ -602,29 +595,33 @@
     <row r="5">
       <c r="A5" s="6" t="inlineStr">
         <is>
-          <t>Patch Cord cat 6</t>
-        </is>
-      </c>
-      <c r="B5" s="6" t="n"/>
+          <t>Câmera mini Bullet</t>
+        </is>
+      </c>
+      <c r="B5" s="6" t="inlineStr">
+        <is>
+          <t>DS-2CD2012-I</t>
+        </is>
+      </c>
       <c r="C5" s="6" t="inlineStr">
         <is>
-          <t>Furukawa</t>
+          <t>Hikvision</t>
         </is>
       </c>
       <c r="D5" s="6" t="inlineStr">
         <is>
-          <t>Engecopi</t>
+          <t>Hikvision</t>
         </is>
       </c>
       <c r="E5" s="7" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F5" s="8" t="n">
-        <v>7.9</v>
+        <v>329.9</v>
       </c>
       <c r="G5" s="7" t="inlineStr">
         <is>
-          <t>01/05/2020</t>
+          <t>07/05/2020</t>
         </is>
       </c>
       <c r="H5" s="9">
@@ -635,33 +632,29 @@
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>Switch POE 16 Portas</t>
-        </is>
-      </c>
-      <c r="B6" s="2" t="inlineStr">
-        <is>
-          <t>DS-7716/7732NI-K4/16P</t>
-        </is>
-      </c>
+          <t>ELETRODUTO GALVANIZADO A FOGO DE 1"</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="n"/>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>Hikvision</t>
+          <t>Ferro Norte</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>Hikvision</t>
+          <t>Matec</t>
         </is>
       </c>
       <c r="E6" s="3" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>800</v>
+        <v>15</v>
       </c>
       <c r="G6" s="3" t="inlineStr">
         <is>
-          <t>15/12/2019</t>
+          <t>17/07/2020</t>
         </is>
       </c>
       <c r="H6" s="5">
@@ -670,19 +663,221 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="10" t="n"/>
-      <c r="B7" s="10" t="n"/>
-      <c r="C7" s="10" t="n"/>
-      <c r="D7" s="10" t="n"/>
-      <c r="E7" s="10" t="n"/>
-      <c r="F7" s="10" t="n"/>
-      <c r="G7" s="10" t="n"/>
-      <c r="H7" s="11">
-        <f> SUM(H2:H6)</f>
+      <c r="A7" s="6" t="inlineStr">
+        <is>
+          <t>ELETRODUTO PVC RÍGIDO DE ½” ANTICHAMA</t>
+        </is>
+      </c>
+      <c r="B7" s="6" t="n"/>
+      <c r="C7" s="6" t="inlineStr">
+        <is>
+          <t>Ferro Norte</t>
+        </is>
+      </c>
+      <c r="D7" s="6" t="inlineStr">
+        <is>
+          <t>Matec</t>
+        </is>
+      </c>
+      <c r="E7" s="7" t="n">
+        <v>200</v>
+      </c>
+      <c r="F7" s="8" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="G7" s="7" t="inlineStr">
+        <is>
+          <t>15/05/2020</t>
+        </is>
+      </c>
+      <c r="H7" s="9">
+        <f> E7*F7</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>MANUTENÇÃO DE CÂMERA INTERNA</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="n"/>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>Nucleo</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>Nucleo</t>
+        </is>
+      </c>
+      <c r="E8" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="F8" s="4" t="n">
+        <v>200</v>
+      </c>
+      <c r="G8" s="3" t="inlineStr">
+        <is>
+          <t>24/06/2020</t>
+        </is>
+      </c>
+      <c r="H8" s="5">
+        <f> E8*F8</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
+          <t>POSTE DE CONCRETO DE 9M</t>
+        </is>
+      </c>
+      <c r="B9" s="6" t="n"/>
+      <c r="C9" s="6" t="inlineStr">
+        <is>
+          <t>Nassau</t>
+        </is>
+      </c>
+      <c r="D9" s="6" t="inlineStr">
+        <is>
+          <t>Matec</t>
+        </is>
+      </c>
+      <c r="E9" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="F9" s="8" t="n">
+        <v>200</v>
+      </c>
+      <c r="G9" s="7" t="inlineStr">
+        <is>
+          <t>17/07/2020</t>
+        </is>
+      </c>
+      <c r="H9" s="9">
+        <f> E9*F9</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>Parafuso 8"</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="n"/>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>pado</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>Matec</t>
+        </is>
+      </c>
+      <c r="E10" s="3" t="n">
+        <v>200</v>
+      </c>
+      <c r="F10" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G10" s="3" t="inlineStr">
+        <is>
+          <t>07/05/2020</t>
+        </is>
+      </c>
+      <c r="H10" s="5">
+        <f> E10*F10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>Patch Cord cat 6</t>
+        </is>
+      </c>
+      <c r="B11" s="6" t="n"/>
+      <c r="C11" s="6" t="inlineStr">
+        <is>
+          <t>Furukawa</t>
+        </is>
+      </c>
+      <c r="D11" s="6" t="inlineStr">
+        <is>
+          <t>Engecopi</t>
+        </is>
+      </c>
+      <c r="E11" s="7" t="n">
+        <v>20</v>
+      </c>
+      <c r="F11" s="8" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="G11" s="7" t="inlineStr">
+        <is>
+          <t>01/05/2020</t>
+        </is>
+      </c>
+      <c r="H11" s="9">
+        <f> E11*F11</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="inlineStr">
+        <is>
+          <t>Switch POE 16 Portas</t>
+        </is>
+      </c>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>DS-7716/7732NI-K4/16P</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>Hikvision</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>Hikvision</t>
+        </is>
+      </c>
+      <c r="E12" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" s="4" t="n">
+        <v>800</v>
+      </c>
+      <c r="G12" s="3" t="inlineStr">
+        <is>
+          <t>15/12/2019</t>
+        </is>
+      </c>
+      <c r="H12" s="5">
+        <f> E12*F12</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="10" t="n"/>
+      <c r="B13" s="10" t="n"/>
+      <c r="C13" s="10" t="n"/>
+      <c r="D13" s="10" t="n"/>
+      <c r="E13" s="10" t="n"/>
+      <c r="F13" s="10" t="n"/>
+      <c r="G13" s="10" t="n"/>
+      <c r="H13" s="11">
+        <f> SUM(H2:H12)</f>
         <v/>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/atividadeform/planilha_preços.xlsx
+++ b/atividadeform/planilha_preços.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="5">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -33,21 +33,11 @@
     </font>
     <font>
       <name val="Arial"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <i val="1"/>
-      <color rgb="00505050"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="Arial"/>
       <b val="1"/>
       <sz val="10"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
@@ -57,16 +47,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="006495ED"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00DDDDDD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00dbe5f1"/>
       </patternFill>
     </fill>
     <fill>
@@ -105,35 +85,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -141,6 +97,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -433,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -494,386 +518,15 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>ABERTURA E RECOMPOSIÇÃO RASGO PARA INSTALAÇÃO DE TUBULAÇÃO EM PAVIMENTAÇÃO DE CONCRETO</t>
-        </is>
-      </c>
+      <c r="A2" s="2" t="n"/>
       <c r="B2" s="2" t="n"/>
-      <c r="C2" s="2" t="inlineStr">
-        <is>
-          <t>Nucleo</t>
-        </is>
-      </c>
-      <c r="D2" s="2" t="inlineStr">
-        <is>
-          <t>Nucleo</t>
-        </is>
-      </c>
-      <c r="E2" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="F2" s="4" t="n">
-        <v>200</v>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>04/08/2020</t>
-        </is>
-      </c>
-      <c r="H2" s="5">
-        <f> E2*F2</f>
-        <v/>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="6" t="inlineStr">
-        <is>
-          <t>CABO DE FIBRA ÓPTICA AUTOSUSTENTADA DE 12F (CFOA-SM-AS80-12FO)</t>
-        </is>
-      </c>
-      <c r="B3" s="6" t="n"/>
-      <c r="C3" s="6" t="inlineStr">
-        <is>
-          <t>Furukawa</t>
-        </is>
-      </c>
-      <c r="D3" s="6" t="inlineStr">
-        <is>
-          <t>Nucleo</t>
-        </is>
-      </c>
-      <c r="E3" s="7" t="n">
-        <v>15</v>
-      </c>
-      <c r="F3" s="8" t="n">
-        <v>10</v>
-      </c>
-      <c r="G3" s="7" t="inlineStr">
-        <is>
-          <t>31/07/2020</t>
-        </is>
-      </c>
-      <c r="H3" s="9">
-        <f> E3*F3</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="inlineStr">
-        <is>
-          <t>CAIXA DE PASSAGEM DE SOBREPOR 120x120x7,5CM</t>
-        </is>
-      </c>
-      <c r="B4" s="2" t="n"/>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>Furukawa</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>Nucleo</t>
-        </is>
-      </c>
-      <c r="E4" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="F4" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="G4" s="3" t="inlineStr">
-        <is>
-          <t>13/05/2020</t>
-        </is>
-      </c>
-      <c r="H4" s="5">
-        <f> E4*F4</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="6" t="inlineStr">
-        <is>
-          <t>Câmera mini Bullet</t>
-        </is>
-      </c>
-      <c r="B5" s="6" t="inlineStr">
-        <is>
-          <t>DS-2CD2012-I</t>
-        </is>
-      </c>
-      <c r="C5" s="6" t="inlineStr">
-        <is>
-          <t>Hikvision</t>
-        </is>
-      </c>
-      <c r="D5" s="6" t="inlineStr">
-        <is>
-          <t>Hikvision</t>
-        </is>
-      </c>
-      <c r="E5" s="7" t="n">
-        <v>18</v>
-      </c>
-      <c r="F5" s="8" t="n">
-        <v>329.9</v>
-      </c>
-      <c r="G5" s="7" t="inlineStr">
-        <is>
-          <t>07/05/2020</t>
-        </is>
-      </c>
-      <c r="H5" s="9">
-        <f> E5*F5</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="inlineStr">
-        <is>
-          <t>ELETRODUTO GALVANIZADO A FOGO DE 1"</t>
-        </is>
-      </c>
-      <c r="B6" s="2" t="n"/>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>Ferro Norte</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>Matec</t>
-        </is>
-      </c>
-      <c r="E6" s="3" t="n">
-        <v>50</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>15</v>
-      </c>
-      <c r="G6" s="3" t="inlineStr">
-        <is>
-          <t>17/07/2020</t>
-        </is>
-      </c>
-      <c r="H6" s="5">
-        <f> E6*F6</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="6" t="inlineStr">
-        <is>
-          <t>ELETRODUTO PVC RÍGIDO DE ½” ANTICHAMA</t>
-        </is>
-      </c>
-      <c r="B7" s="6" t="n"/>
-      <c r="C7" s="6" t="inlineStr">
-        <is>
-          <t>Ferro Norte</t>
-        </is>
-      </c>
-      <c r="D7" s="6" t="inlineStr">
-        <is>
-          <t>Matec</t>
-        </is>
-      </c>
-      <c r="E7" s="7" t="n">
-        <v>200</v>
-      </c>
-      <c r="F7" s="8" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="G7" s="7" t="inlineStr">
-        <is>
-          <t>15/05/2020</t>
-        </is>
-      </c>
-      <c r="H7" s="9">
-        <f> E7*F7</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="inlineStr">
-        <is>
-          <t>MANUTENÇÃO DE CÂMERA INTERNA</t>
-        </is>
-      </c>
-      <c r="B8" s="2" t="n"/>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>Nucleo</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>Nucleo</t>
-        </is>
-      </c>
-      <c r="E8" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="F8" s="4" t="n">
-        <v>200</v>
-      </c>
-      <c r="G8" s="3" t="inlineStr">
-        <is>
-          <t>24/06/2020</t>
-        </is>
-      </c>
-      <c r="H8" s="5">
-        <f> E8*F8</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="6" t="inlineStr">
-        <is>
-          <t>POSTE DE CONCRETO DE 9M</t>
-        </is>
-      </c>
-      <c r="B9" s="6" t="n"/>
-      <c r="C9" s="6" t="inlineStr">
-        <is>
-          <t>Nassau</t>
-        </is>
-      </c>
-      <c r="D9" s="6" t="inlineStr">
-        <is>
-          <t>Matec</t>
-        </is>
-      </c>
-      <c r="E9" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="F9" s="8" t="n">
-        <v>200</v>
-      </c>
-      <c r="G9" s="7" t="inlineStr">
-        <is>
-          <t>17/07/2020</t>
-        </is>
-      </c>
-      <c r="H9" s="9">
-        <f> E9*F9</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="inlineStr">
-        <is>
-          <t>Parafuso 8"</t>
-        </is>
-      </c>
-      <c r="B10" s="2" t="n"/>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>pado</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>Matec</t>
-        </is>
-      </c>
-      <c r="E10" s="3" t="n">
-        <v>200</v>
-      </c>
-      <c r="F10" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="G10" s="3" t="inlineStr">
-        <is>
-          <t>07/05/2020</t>
-        </is>
-      </c>
-      <c r="H10" s="5">
-        <f> E10*F10</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="6" t="inlineStr">
-        <is>
-          <t>Patch Cord cat 6</t>
-        </is>
-      </c>
-      <c r="B11" s="6" t="n"/>
-      <c r="C11" s="6" t="inlineStr">
-        <is>
-          <t>Furukawa</t>
-        </is>
-      </c>
-      <c r="D11" s="6" t="inlineStr">
-        <is>
-          <t>Engecopi</t>
-        </is>
-      </c>
-      <c r="E11" s="7" t="n">
-        <v>20</v>
-      </c>
-      <c r="F11" s="8" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="G11" s="7" t="inlineStr">
-        <is>
-          <t>01/05/2020</t>
-        </is>
-      </c>
-      <c r="H11" s="9">
-        <f> E11*F11</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="inlineStr">
-        <is>
-          <t>Switch POE 16 Portas</t>
-        </is>
-      </c>
-      <c r="B12" s="2" t="inlineStr">
-        <is>
-          <t>DS-7716/7732NI-K4/16P</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>Hikvision</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>Hikvision</t>
-        </is>
-      </c>
-      <c r="E12" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F12" s="4" t="n">
-        <v>800</v>
-      </c>
-      <c r="G12" s="3" t="inlineStr">
-        <is>
-          <t>15/12/2019</t>
-        </is>
-      </c>
-      <c r="H12" s="5">
-        <f> E12*F12</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="10" t="n"/>
-      <c r="B13" s="10" t="n"/>
-      <c r="C13" s="10" t="n"/>
-      <c r="D13" s="10" t="n"/>
-      <c r="E13" s="10" t="n"/>
-      <c r="F13" s="10" t="n"/>
-      <c r="G13" s="10" t="n"/>
-      <c r="H13" s="11">
-        <f> SUM(H2:H12)</f>
+      <c r="C2" s="2" t="n"/>
+      <c r="D2" s="2" t="n"/>
+      <c r="E2" s="2" t="n"/>
+      <c r="F2" s="2" t="n"/>
+      <c r="G2" s="2" t="n"/>
+      <c r="H2" s="3">
+        <f> SUM(H2:H1)</f>
         <v/>
       </c>
     </row>

--- a/atividadeform/planilha_preços.xlsx
+++ b/atividadeform/planilha_preços.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -33,11 +33,21 @@
     </font>
     <font>
       <name val="Arial"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <i val="1"/>
+      <color rgb="00505050"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Arial"/>
       <b val="1"/>
       <sz val="10"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill/>
     </fill>
@@ -47,6 +57,16 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="006495ED"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00DDDDDD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00dbe5f1"/>
       </patternFill>
     </fill>
     <fill>
@@ -85,11 +105,35 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -457,7 +501,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,15 +562,254 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n"/>
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>CAIXA DE PASSAGEM DE SOBREPOR 120x120x7,5CM</t>
+        </is>
+      </c>
       <c r="B2" s="2" t="n"/>
-      <c r="C2" s="2" t="n"/>
-      <c r="D2" s="2" t="n"/>
-      <c r="E2" s="2" t="n"/>
-      <c r="F2" s="2" t="n"/>
-      <c r="G2" s="2" t="n"/>
-      <c r="H2" s="3">
-        <f> SUM(H2:H1)</f>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>Furukawa</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>Nucleo</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="F2" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>13/05/2020</t>
+        </is>
+      </c>
+      <c r="H2" s="5">
+        <f> E2*F2</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="6" t="inlineStr">
+        <is>
+          <t>Câmera mini Bullet</t>
+        </is>
+      </c>
+      <c r="B3" s="6" t="inlineStr">
+        <is>
+          <t>DS-2CD2012-I</t>
+        </is>
+      </c>
+      <c r="C3" s="6" t="inlineStr">
+        <is>
+          <t>Hikvision</t>
+        </is>
+      </c>
+      <c r="D3" s="6" t="inlineStr">
+        <is>
+          <t>Hikvision</t>
+        </is>
+      </c>
+      <c r="E3" s="7" t="n">
+        <v>12</v>
+      </c>
+      <c r="F3" s="8" t="n">
+        <v>329.9</v>
+      </c>
+      <c r="G3" s="7" t="inlineStr">
+        <is>
+          <t>07/05/2020</t>
+        </is>
+      </c>
+      <c r="H3" s="9">
+        <f> E3*F3</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>ELETRODUTO GALVANIZADO A FOGO DE 1"</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="n"/>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>Ferro Norte</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>Matec</t>
+        </is>
+      </c>
+      <c r="E4" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="F4" s="4" t="n">
+        <v>15</v>
+      </c>
+      <c r="G4" s="3" t="inlineStr">
+        <is>
+          <t>17/07/2020</t>
+        </is>
+      </c>
+      <c r="H4" s="5">
+        <f> E4*F4</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="6" t="inlineStr">
+        <is>
+          <t>ELETRODUTO PVC RÍGIDO DE ½” ANTICHAMA</t>
+        </is>
+      </c>
+      <c r="B5" s="6" t="n"/>
+      <c r="C5" s="6" t="inlineStr">
+        <is>
+          <t>Ferro Norte</t>
+        </is>
+      </c>
+      <c r="D5" s="6" t="inlineStr">
+        <is>
+          <t>Matec</t>
+        </is>
+      </c>
+      <c r="E5" s="7" t="n">
+        <v>32</v>
+      </c>
+      <c r="F5" s="8" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="G5" s="7" t="inlineStr">
+        <is>
+          <t>15/05/2020</t>
+        </is>
+      </c>
+      <c r="H5" s="9">
+        <f> E5*F5</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>Guia de cabo</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="n"/>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>furukawa</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>Matec</t>
+        </is>
+      </c>
+      <c r="E6" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>25</v>
+      </c>
+      <c r="G6" s="3" t="inlineStr">
+        <is>
+          <t>18/11/1991</t>
+        </is>
+      </c>
+      <c r="H6" s="5">
+        <f> E6*F6</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="6" t="inlineStr">
+        <is>
+          <t>Patch Cord cat 6</t>
+        </is>
+      </c>
+      <c r="B7" s="6" t="n"/>
+      <c r="C7" s="6" t="inlineStr">
+        <is>
+          <t>Furukawa</t>
+        </is>
+      </c>
+      <c r="D7" s="6" t="inlineStr">
+        <is>
+          <t>Engecopi</t>
+        </is>
+      </c>
+      <c r="E7" s="7" t="n">
+        <v>45</v>
+      </c>
+      <c r="F7" s="8" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="G7" s="7" t="inlineStr">
+        <is>
+          <t>01/05/2020</t>
+        </is>
+      </c>
+      <c r="H7" s="9">
+        <f> E7*F7</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>Switch POE 16 Portas</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>DS-7716/7732NI-K4/16P</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>Hikvision</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>Hikvision</t>
+        </is>
+      </c>
+      <c r="E8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" s="4" t="n">
+        <v>800</v>
+      </c>
+      <c r="G8" s="3" t="inlineStr">
+        <is>
+          <t>15/12/2019</t>
+        </is>
+      </c>
+      <c r="H8" s="5">
+        <f> E8*F8</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="10" t="n"/>
+      <c r="B9" s="10" t="n"/>
+      <c r="C9" s="10" t="n"/>
+      <c r="D9" s="10" t="n"/>
+      <c r="E9" s="10" t="n"/>
+      <c r="F9" s="10" t="n"/>
+      <c r="G9" s="10" t="n"/>
+      <c r="H9" s="11">
+        <f> SUM(H2:H8)</f>
         <v/>
       </c>
     </row>

--- a/atividadeform/planilha_preços.xlsx
+++ b/atividadeform/planilha_preços.xlsx
@@ -501,7 +501,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -564,7 +564,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>CAIXA DE PASSAGEM DE SOBREPOR 120x120x7,5CM</t>
+          <t>CABO DE FIBRA ÓPTICA AUTOSUSTENTADA DE 12F (CFOA-SM-AS80-12FO)</t>
         </is>
       </c>
       <c r="B2" s="2" t="n"/>
@@ -579,14 +579,14 @@
         </is>
       </c>
       <c r="E2" s="3" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="F2" s="4" t="n">
         <v>10</v>
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>13/05/2020</t>
+          <t>31/07/2020</t>
         </is>
       </c>
       <c r="H2" s="5">
@@ -597,33 +597,29 @@
     <row r="3">
       <c r="A3" s="6" t="inlineStr">
         <is>
-          <t>Câmera mini Bullet</t>
-        </is>
-      </c>
-      <c r="B3" s="6" t="inlineStr">
-        <is>
-          <t>DS-2CD2012-I</t>
-        </is>
-      </c>
+          <t>CAIXA DE PASSAGEM DE SOBREPOR 120x120x7,5CM</t>
+        </is>
+      </c>
+      <c r="B3" s="6" t="n"/>
       <c r="C3" s="6" t="inlineStr">
         <is>
-          <t>Hikvision</t>
+          <t>Furukawa</t>
         </is>
       </c>
       <c r="D3" s="6" t="inlineStr">
         <is>
-          <t>Hikvision</t>
+          <t>Nucleo</t>
         </is>
       </c>
       <c r="E3" s="7" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F3" s="8" t="n">
-        <v>329.9</v>
+        <v>10</v>
       </c>
       <c r="G3" s="7" t="inlineStr">
         <is>
-          <t>07/05/2020</t>
+          <t>13/05/2020</t>
         </is>
       </c>
       <c r="H3" s="9">
@@ -634,29 +630,33 @@
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>ELETRODUTO GALVANIZADO A FOGO DE 1"</t>
-        </is>
-      </c>
-      <c r="B4" s="2" t="n"/>
+          <t>Câmera mini Bullet</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>DS-2CD2012-I</t>
+        </is>
+      </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>Ferro Norte</t>
+          <t>Hikvision</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>Matec</t>
+          <t>Hikvision</t>
         </is>
       </c>
       <c r="E4" s="3" t="n">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>15</v>
+        <v>329.9</v>
       </c>
       <c r="G4" s="3" t="inlineStr">
         <is>
-          <t>17/07/2020</t>
+          <t>07/05/2020</t>
         </is>
       </c>
       <c r="H4" s="5">
@@ -667,7 +667,7 @@
     <row r="5">
       <c r="A5" s="6" t="inlineStr">
         <is>
-          <t>ELETRODUTO PVC RÍGIDO DE ½” ANTICHAMA</t>
+          <t>ELETRODUTO GALVANIZADO A FOGO DE 1"</t>
         </is>
       </c>
       <c r="B5" s="6" t="n"/>
@@ -682,14 +682,14 @@
         </is>
       </c>
       <c r="E5" s="7" t="n">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="F5" s="8" t="n">
-        <v>7.5</v>
+        <v>15</v>
       </c>
       <c r="G5" s="7" t="inlineStr">
         <is>
-          <t>15/05/2020</t>
+          <t>17/07/2020</t>
         </is>
       </c>
       <c r="H5" s="9">
@@ -700,13 +700,13 @@
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>Guia de cabo</t>
+          <t>ELETRODUTO PVC RÍGIDO DE ½” ANTICHAMA</t>
         </is>
       </c>
       <c r="B6" s="2" t="n"/>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>furukawa</t>
+          <t>Ferro Norte</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -715,14 +715,14 @@
         </is>
       </c>
       <c r="E6" s="3" t="n">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>25</v>
+        <v>7.5</v>
       </c>
       <c r="G6" s="3" t="inlineStr">
         <is>
-          <t>18/11/1991</t>
+          <t>15/05/2020</t>
         </is>
       </c>
       <c r="H6" s="5">
@@ -733,29 +733,29 @@
     <row r="7">
       <c r="A7" s="6" t="inlineStr">
         <is>
-          <t>Patch Cord cat 6</t>
+          <t>Guia de cabo</t>
         </is>
       </c>
       <c r="B7" s="6" t="n"/>
       <c r="C7" s="6" t="inlineStr">
         <is>
-          <t>Furukawa</t>
+          <t>furukawa</t>
         </is>
       </c>
       <c r="D7" s="6" t="inlineStr">
         <is>
-          <t>Engecopi</t>
+          <t>Matec</t>
         </is>
       </c>
       <c r="E7" s="7" t="n">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="F7" s="8" t="n">
-        <v>7.9</v>
+        <v>25</v>
       </c>
       <c r="G7" s="7" t="inlineStr">
         <is>
-          <t>01/05/2020</t>
+          <t>18/11/1991</t>
         </is>
       </c>
       <c r="H7" s="9">
@@ -766,33 +766,29 @@
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>Switch POE 16 Portas</t>
-        </is>
-      </c>
-      <c r="B8" s="2" t="inlineStr">
-        <is>
-          <t>DS-7716/7732NI-K4/16P</t>
-        </is>
-      </c>
+          <t>POSTE DE CONCRETO DE 9M</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="n"/>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>Hikvision</t>
+          <t>Nassau</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>Hikvision</t>
+          <t>Matec</t>
         </is>
       </c>
       <c r="E8" s="3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F8" s="4" t="n">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="G8" s="3" t="inlineStr">
         <is>
-          <t>15/12/2019</t>
+          <t>17/07/2020</t>
         </is>
       </c>
       <c r="H8" s="5">
@@ -801,15 +797,52 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="10" t="n"/>
-      <c r="B9" s="10" t="n"/>
-      <c r="C9" s="10" t="n"/>
-      <c r="D9" s="10" t="n"/>
-      <c r="E9" s="10" t="n"/>
-      <c r="F9" s="10" t="n"/>
-      <c r="G9" s="10" t="n"/>
-      <c r="H9" s="11">
-        <f> SUM(H2:H8)</f>
+      <c r="A9" s="6" t="inlineStr">
+        <is>
+          <t>Switch POE 16 Portas</t>
+        </is>
+      </c>
+      <c r="B9" s="6" t="inlineStr">
+        <is>
+          <t>DS-7716/7732NI-K4/16P</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="inlineStr">
+        <is>
+          <t>Hikvision</t>
+        </is>
+      </c>
+      <c r="D9" s="6" t="inlineStr">
+        <is>
+          <t>Hikvision</t>
+        </is>
+      </c>
+      <c r="E9" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" s="8" t="n">
+        <v>800</v>
+      </c>
+      <c r="G9" s="7" t="inlineStr">
+        <is>
+          <t>15/12/2019</t>
+        </is>
+      </c>
+      <c r="H9" s="9">
+        <f> E9*F9</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="10" t="n"/>
+      <c r="B10" s="10" t="n"/>
+      <c r="C10" s="10" t="n"/>
+      <c r="D10" s="10" t="n"/>
+      <c r="E10" s="10" t="n"/>
+      <c r="F10" s="10" t="n"/>
+      <c r="G10" s="10" t="n"/>
+      <c r="H10" s="11">
+        <f> SUM(H2:H9)</f>
         <v/>
       </c>
     </row>
